--- a/productos.xlsx
+++ b/productos.xlsx
@@ -122,6 +122,1636 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>2</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="2" name="Image 2" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="3" name="Image 3" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="4" name="Image 4" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>5</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="5" name="Image 5" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>6</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="6" name="Image 6" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>7</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="7" name="Image 7" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>8</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="8" name="Image 8" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>9</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="9" name="Image 9" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>10</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="10" name="Image 10" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>11</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="11" name="Image 11" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>12</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="12" name="Image 12" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>13</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="13" name="Image 13" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>14</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="14" name="Image 14" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>15</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="15" name="Image 15" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>16</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="16" name="Image 16" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>17</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="17" name="Image 17" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>18</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="18" name="Image 18" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>19</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="19" name="Image 19" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>20</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="20" name="Image 20" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>21</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="21" name="Image 21" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>22</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="22" name="Image 22" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>23</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="23" name="Image 23" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>24</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="24" name="Image 24" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>25</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="25" name="Image 25" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>26</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="26" name="Image 26" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>27</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="27" name="Image 27" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>28</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="28" name="Image 28" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>29</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="29" name="Image 29" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>30</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="30" name="Image 30" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>31</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="31" name="Image 31" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>32</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="32" name="Image 32" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>33</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="33" name="Image 33" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId33"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>34</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="34" name="Image 34" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId34"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>35</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="35" name="Image 35" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId35"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>36</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="36" name="Image 36" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId36"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>37</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="37" name="Image 37" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId37"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>38</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="38" name="Image 38" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId38"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>39</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="39" name="Image 39" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId39"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>40</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="40" name="Image 40" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId40"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>41</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="41" name="Image 41" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId41"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>42</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="42" name="Image 42" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId42"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>43</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="43" name="Image 43" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId43"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>44</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="44" name="Image 44" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId44"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>45</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="45" name="Image 45" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId45"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>46</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="46" name="Image 46" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId46"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>47</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="47" name="Image 47" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId47"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>48</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="48" name="Image 48" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId48"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>49</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="49" name="Image 49" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId49"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>50</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="50" name="Image 50" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId50"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>51</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="51" name="Image 51" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId51"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>52</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="52" name="Image 52" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId52"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>53</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="53" name="Image 53" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId53"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>54</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="54" name="Image 54" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId54"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>55</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="55" name="Image 55" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId55"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>56</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="56" name="Image 56" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId56"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>57</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="57" name="Image 57" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId57"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>58</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="58" name="Image 58" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId58"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>59</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="59" name="Image 59" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId59"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>61</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="60" name="Image 60" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId60"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>62</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="61" name="Image 61" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId61"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>63</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="62" name="Image 62" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId62"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>64</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="63" name="Image 63" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId63"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>65</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="64" name="Image 64" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId64"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>66</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="65" name="Image 65" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId65"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -408,12 +2038,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B67"/>
+  <dimension ref="A1:D67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -432,6 +2062,11 @@
           <t>Precio</t>
         </is>
       </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Imagen</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -444,6 +2079,11 @@
           <t>$469.990</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2024/06/Sale-Outlet-Cama-Europea-Rosen-Tempo-Bd-2-Plazas-Respaldo-Issey-Grafito-1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -456,6 +2096,11 @@
           <t>$269.990</t>
         </is>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2024/05/Sale-Outlet-Cama-Divan-New-Style-6-Rosen-1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -468,6 +2113,11 @@
           <t>$399.990</t>
         </is>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2024/05/Sale-Outlet-Cama-Europea-2-Plazas-Tempo-Rosen-1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -480,6 +2130,11 @@
           <t>$349.990</t>
         </is>
       </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2024/05/Sale-Outlet-Cama-Europea-1-Plaza-New-Style-6-Rosen-1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -492,6 +2147,11 @@
           <t>$239.990</t>
         </is>
       </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2024/05/Sale-Outlet-Cama-Europea-2-Plazas-New-Style-4-Rosen-1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -504,6 +2164,11 @@
           <t>$259.990</t>
         </is>
       </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2024/05/Sale-Outlet-Cama-Europea-Altamira-Celta-2-Plazas-Base-Dividida-Mas-Respaldo-Pamplona-1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -516,6 +2181,11 @@
           <t>$279.990</t>
         </is>
       </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2024/05/Sale-Outlet-Cama-Europea-Altamira-Celta-2-Plazas-Base-Dividida-Respaldo-Celta-1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -528,6 +2198,11 @@
           <t>$89.990</t>
         </is>
       </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2024/05/Sale-Outlet-Set-Cic-2-Velador-Respaldo-Legno-King-1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -540,6 +2215,11 @@
           <t>$139.990</t>
         </is>
       </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2024/04/Sale-Outlet-Respaldo-Lino-Plaza-King-1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -552,6 +2232,11 @@
           <t>$41.990</t>
         </is>
       </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2024/01/Sale-Outlet-Velador-Stilo-Toscana-1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -564,6 +2249,11 @@
           <t>$34.990</t>
         </is>
       </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2024/01/Sale-Outlet-Velador-New-Gales-Cic-1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -576,6 +2266,11 @@
           <t>$69.990</t>
         </is>
       </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2024/01/Sale-Outlet-Respaldo-Castell-2Pl-Flex-1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -588,6 +2283,11 @@
           <t>$89.990</t>
         </is>
       </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2024/01/Sale-Outlet-Set-De-Maderas-Asturias-2PL-Flex.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -600,6 +2300,11 @@
           <t>$39.990</t>
         </is>
       </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2024/01/Sale-Outlet-Velador-New-Torino-Caramelo-Cic-1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -612,6 +2317,11 @@
           <t>$99.990</t>
         </is>
       </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2024/01/Sale-Outlet-Respaldo-Design-Grafito-2-PL-Flex-1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -624,6 +2334,11 @@
           <t>$99.990</t>
         </is>
       </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2024/01/Sale-Outlet-Respaldo-Issey-Grafito-2PL-Rosen-1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -636,6 +2351,11 @@
           <t>$99.990</t>
         </is>
       </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2024/01/Sale-Outlet-Respaldo-Miro-2PL-Cic-1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -648,6 +2368,11 @@
           <t>$499.990</t>
         </is>
       </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2024/01/Sale-Outlet-Sofa-Cama-Clara-Basement-Home-Gris-1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -660,6 +2385,11 @@
           <t>$59.990</t>
         </is>
       </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2024/01/Sale-Outlet-Velador-Aragon-Capitone-1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -672,6 +2402,11 @@
           <t>$59.990</t>
         </is>
       </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2024/01/Sale-Outlet-Velador-Milan-Derecho-Cic-1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -684,6 +2419,11 @@
           <t>$59.990</t>
         </is>
       </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2024/01/Sale-Outlet-Velador-Milan-Derecho-Cic-1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -696,6 +2436,11 @@
           <t>$29.990</t>
         </is>
       </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2023/08/SALE-OUTLET-VELADOR-CELTA-VILLARREAL-izquirdo.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -708,6 +2453,11 @@
           <t>$69.990</t>
         </is>
       </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2024/01/Sale-Outlet-Velador-Rosen-Dolce-1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -720,6 +2470,11 @@
           <t>$69.990</t>
         </is>
       </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2024/01/Sale-Outlet-Respaldo-New-Torino-Cic-King-Chocolate-1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -732,6 +2487,11 @@
           <t>$69.990</t>
         </is>
       </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2024/01/Sale-Outlet-Respaldo-Veneto-Rosen-2-PL-1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -744,6 +2504,11 @@
           <t>$18.990</t>
         </is>
       </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2023/07/sale-outlet-sabana-american-familly-bicolor-purpura-15-plazas-1.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -756,6 +2521,11 @@
           <t>$15.000</t>
         </is>
       </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2023/11/Sale-Outlet-Patas-Para-Cama-1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -768,6 +2538,11 @@
           <t>$69.990</t>
         </is>
       </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2023/11/Sale-Outlet-Colchon-Celta-Active-Bamboo-1-Plaza-1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -780,6 +2555,11 @@
           <t>$29.990</t>
         </is>
       </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2023/08/SALE-OUTLET-VELADOR-CELTA-VILLARREAL-izquirdo.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -792,6 +2572,11 @@
           <t>$39.990</t>
         </is>
       </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2023/08/SALE-OUTLET-VELADOR-ROSEN-FERRARA.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -804,6 +2589,11 @@
           <t>$27.990</t>
         </is>
       </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2023/08/SALE-OUTLET-Marca-velador.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -816,6 +2606,11 @@
           <t>$14.990</t>
         </is>
       </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2023/08/SALE-OUTLET-CELTA-Velador-Celta-Castilla-Cafe.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -828,6 +2623,11 @@
           <t>$14.990</t>
         </is>
       </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2023/08/SALE-OUTLET-Velador-Celta-Asturias-Cafe.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -840,6 +2640,11 @@
           <t>$69.990</t>
         </is>
       </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2023/08/SALE-OUTLET-SET-CIC-2-VELADOR-RESPALDO-LEGNO-2-PL.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -852,6 +2657,11 @@
           <t>$59.990</t>
         </is>
       </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2023/08/SALE-OUTLET-RESPALDO-FLEX-TOSCANA-2-PL.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -864,6 +2674,11 @@
           <t>$49.990</t>
         </is>
       </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2023/08/SALE-OUTLET-RESPALDO-ROSEN-VENETO-KING.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -876,6 +2691,11 @@
           <t>$119.990</t>
         </is>
       </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2023/08/SALE-OUTLET-RESPALDO-ROSEN-ISSEY-KING-GRAFITO.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -888,6 +2708,11 @@
           <t>$99.990</t>
         </is>
       </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2023/08/SALE-OUTLET-RESPALDO-ROSEN-DOMENICO-KING-.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -900,6 +2725,11 @@
           <t>$59.990</t>
         </is>
       </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2023/08/SALE-OUTLET-35545774.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -912,6 +2742,11 @@
           <t>$19.990</t>
         </is>
       </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2023/08/Captura-de-Pantalla-2023-08-29-a-las-12.56.03.png</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -924,6 +2759,11 @@
           <t>$59.990</t>
         </is>
       </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2023/08/SALE-OUTLET-RESPALDO-ROSEN-FERRARA-2-PL.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -936,6 +2776,11 @@
           <t>$49.990</t>
         </is>
       </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2023/08/SALE-OUTLET-RESPALDO-ROSEN-FERRARA-1.5-PL.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -948,6 +2793,11 @@
           <t>$59.990</t>
         </is>
       </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2023/08/SALE-OUTLET-RESPALDO-CIC-NEW-DUBLIN-CHOCOLATE-2-PL.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -960,6 +2810,11 @@
           <t>$59.990</t>
         </is>
       </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2023/08/SALE-OUTLET-37721956.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -972,6 +2827,11 @@
           <t>$29.990</t>
         </is>
       </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2023/08/SALE-OUTLET-RESPALDO-CIC-NEW-VILLARRICA-2-PL.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -984,6 +2844,11 @@
           <t>$69.990</t>
         </is>
       </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2023/08/SALE-OUTLET-RESPALDO-CIC-NEW-TORINO-CARAMEL-KING-.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -996,6 +2861,11 @@
           <t>$14.990</t>
         </is>
       </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2023/08/SALE-OUTLET-Respaldo-Celta-1-Plaza-Castilla.webp</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1008,6 +2878,11 @@
           <t>$14.990</t>
         </is>
       </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2023/08/SALE-OUTLET-Respaldo-Celta-2-Plazas-Castilla-Cafe.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1020,6 +2895,11 @@
           <t>$14.990</t>
         </is>
       </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2023/08/SALE-OUTLET-Respaldo-Celta-15-Plazas-Castilla-Cafe.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1032,6 +2912,11 @@
           <t>$79.990</t>
         </is>
       </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2023/08/SALE-OUTLET-RESPALDO-CELTA-KING-CAPITONE-CAFE.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1044,6 +2929,11 @@
           <t>$69.990</t>
         </is>
       </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2023/08/SALE-OUTLET-RESPALDO-ROSEN-BILBAO-2-PL.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1056,6 +2946,11 @@
           <t>$14.990</t>
         </is>
       </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2023/08/SALE-OUTLET-Respaldo-Celta-2-Plazas-Asturias.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1068,6 +2963,11 @@
           <t>$14.990</t>
         </is>
       </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2023/08/Captura-de-Pantalla-2023-08-29-a-las-12.45.33.png</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1080,6 +2980,11 @@
           <t>$14.990</t>
         </is>
       </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2023/08/Captura-de-Pantalla-2023-08-29-a-las-13.04.59.png</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1092,6 +2997,11 @@
           <t>$89.990</t>
         </is>
       </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2023/08/Sale-Outlet-Aerus-Honey-King-Beige-1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1104,6 +3014,11 @@
           <t>$69.990</t>
         </is>
       </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2023/08/SALE-OUTLET-RESPALDO-CIC-EUFRATES-KING.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1116,6 +3031,11 @@
           <t>$17.990</t>
         </is>
       </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2023/07/Sale-Outlet-Despacho-1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1128,6 +3048,11 @@
           <t>$34.990</t>
         </is>
       </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2023/07/Sale-Outlet-Despacho-1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1140,6 +3065,11 @@
           <t>$15.990</t>
         </is>
       </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2023/07/Sale-Outlet-Despacho-1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1152,6 +3082,16 @@
           <t>$29.990</t>
         </is>
       </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>https://saleoutlet.cl/wp-content/uploads/2023/02/PR-0x0.jpg</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>https://saleoutlet.cl/wp-content/uploads/2023/02/PR-0x0.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1164,6 +3104,11 @@
           <t>$59.990</t>
         </is>
       </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2021/08/2000377219454_2.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1176,6 +3121,11 @@
           <t>$15.990</t>
         </is>
       </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2023/07/sale-outlet-sabana-american-familly-bicolor-granito-1.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1188,6 +3138,11 @@
           <t>$299.990</t>
         </is>
       </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2023/06/SALE-OUTLET-R.ALLEN-RESPALDO-COCHRANE-SUPERKING-CRUDO-1.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1200,6 +3155,11 @@
           <t>$149.990</t>
         </is>
       </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2023/06/SALE-OUTLET-RESPALDO-ROBERTA-ALLEN-KINGS-VALENTIN-1.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1212,6 +3172,11 @@
           <t>$39.990</t>
         </is>
       </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2023/02/Sale-Outlet-Velador-Mallorca-1.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1224,8 +3189,14 @@
           <t>$229.990</t>
         </is>
       </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2022/12/Sale-Outlet-Cama-Europea-1-Plaza-New-Style-6-Rosen-1.jpg</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/productos.xlsx
+++ b/productos.xlsx
@@ -122,6 +122,1636 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>2</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="2" name="Image 2" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="3" name="Image 3" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="4" name="Image 4" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>5</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="5" name="Image 5" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>6</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="6" name="Image 6" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>7</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="7" name="Image 7" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>8</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="8" name="Image 8" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>9</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="9" name="Image 9" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>10</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="10" name="Image 10" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>11</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="11" name="Image 11" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>12</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="12" name="Image 12" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>13</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="13" name="Image 13" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>14</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="14" name="Image 14" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>15</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="15" name="Image 15" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>16</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="16" name="Image 16" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>17</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="17" name="Image 17" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>18</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="18" name="Image 18" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>19</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="19" name="Image 19" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>20</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="20" name="Image 20" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>21</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="21" name="Image 21" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>22</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="22" name="Image 22" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>23</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="23" name="Image 23" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>24</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="24" name="Image 24" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>25</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="25" name="Image 25" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>26</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="26" name="Image 26" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>27</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="27" name="Image 27" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>28</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="28" name="Image 28" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>29</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="29" name="Image 29" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>30</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="30" name="Image 30" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>31</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="31" name="Image 31" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>32</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="32" name="Image 32" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>33</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="33" name="Image 33" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId33"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>34</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="34" name="Image 34" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId34"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>35</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="35" name="Image 35" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId35"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>36</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="36" name="Image 36" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId36"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>37</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="37" name="Image 37" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId37"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>38</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="38" name="Image 38" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId38"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>39</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="39" name="Image 39" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId39"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>40</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="40" name="Image 40" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId40"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>41</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="41" name="Image 41" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId41"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>42</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="42" name="Image 42" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId42"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>43</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="43" name="Image 43" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId43"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>44</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="44" name="Image 44" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId44"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>45</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="45" name="Image 45" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId45"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>46</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="46" name="Image 46" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId46"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>47</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="47" name="Image 47" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId47"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>48</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="48" name="Image 48" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId48"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>49</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="49" name="Image 49" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId49"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>50</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="50" name="Image 50" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId50"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>51</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="51" name="Image 51" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId51"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>52</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="52" name="Image 52" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId52"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>53</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="53" name="Image 53" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId53"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>54</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="54" name="Image 54" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId54"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>55</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="55" name="Image 55" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId55"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>56</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="56" name="Image 56" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId56"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>57</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="57" name="Image 57" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId57"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>58</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="58" name="Image 58" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId58"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>59</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="59" name="Image 59" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId59"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>61</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="60" name="Image 60" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId60"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>62</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="61" name="Image 61" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId61"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>63</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="62" name="Image 62" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId62"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>64</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="63" name="Image 63" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId63"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>65</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="64" name="Image 64" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId64"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>66</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="65" name="Image 65" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId65"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -408,12 +2038,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,16 +2064,1139 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Descripción</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Imagen URL</t>
+          <t>Imagen</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>CAMA EUROPEA ROSEN TEMPO BD 2 PL + RESPALDO ISSEY GRAFITO</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>$469.990</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2024/06/Sale-Outlet-Cama-Europea-Rosen-Tempo-Bd-2-Plazas-Respaldo-Issey-Grafito-1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Cama Nido New Style 6 Rosen 1,5 Plazas</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>$269.990</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2024/05/Sale-Outlet-Cama-Divan-New-Style-6-Rosen-1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Cama Europea 2 Plazas Tempo Rosen Base Dividida</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>$399.990</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2024/05/Sale-Outlet-Cama-Europea-2-Plazas-Tempo-Rosen-1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Cama Europea New Style 6 105×200 Mas Set Ferrara Rosen</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>$349.990</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2024/05/Sale-Outlet-Cama-Europea-1-Plaza-New-Style-6-Rosen-1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Cama Europea 2 Plazas New Style 4 Rosen 150 x 200 Cm Base Dividida</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>$239.990</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2024/05/Sale-Outlet-Cama-Europea-2-Plazas-New-Style-4-Rosen-1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Cama Europea Altamira Celta 2 Plazas Base Dividida + Respaldo Pamplona</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>$259.990</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2024/05/Sale-Outlet-Cama-Europea-Altamira-Celta-2-Plazas-Base-Dividida-Mas-Respaldo-Pamplona-1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Cama Europea Altamira Celta 2 Plazas Base Dividida + Respaldo Celta</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>$279.990</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2024/05/Sale-Outlet-Cama-Europea-Altamira-Celta-2-Plazas-Base-Dividida-Respaldo-Celta-1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>SET CIC 2 VELADOR + RESPALDO LEGNO KING</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>$89.990</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2024/05/Sale-Outlet-Set-Cic-2-Velador-Respaldo-Legno-King-1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>RESPALDO LINO GRIS PLAZA 2 PLAZA ALANIZ HOME</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>$139.990</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2024/04/Sale-Outlet-Respaldo-Lino-Plaza-King-1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>VELADOR STILO TOSCANA</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>$41.990</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2024/01/Sale-Outlet-Velador-Stilo-Toscana-1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>VELADOR NEW GALES CIC</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>$34.990</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2024/01/Sale-Outlet-Velador-New-Gales-Cic-1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>RESPALDO CASTELL 2PL</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>$69.990</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2024/01/Sale-Outlet-Respaldo-Castell-2Pl-Flex-1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>SET MADERAS ASTURIAS 2PL FLEX</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>$89.990</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2024/01/Sale-Outlet-Set-De-Maderas-Asturias-2PL-Flex.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>VELADOR NEW TORINO CARAMELO CIC</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>$39.990</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2024/01/Sale-Outlet-Velador-New-Torino-Caramelo-Cic-1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>RESPALDO DESIGN GRAFITO 2PL FLEX</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>$99.990</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2024/01/Sale-Outlet-Respaldo-Design-Grafito-2-PL-Flex-1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>RESPALDO ISSEY 2PL ROSEN</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>$99.990</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2024/01/Sale-Outlet-Respaldo-Issey-Grafito-2PL-Rosen-1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>RESPALDO MIRO 2PL CIC</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>$99.990</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2024/01/Sale-Outlet-Respaldo-Miro-2PL-Cic-1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Sofá Cama Clara Basement Home Gris</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>$499.990</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2024/01/Sale-Outlet-Sofa-Cama-Clara-Basement-Home-Gris-1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>VELADOR ARAGON CELTA</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>$59.990</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2024/01/Sale-Outlet-Velador-Aragon-Capitone-1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>VELADOR MILAN IZQUIERDO CIC</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>$59.990</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2024/01/Sale-Outlet-Velador-Milan-Derecho-Cic-1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>VELADOR MILAN DERECHO CIC</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>$59.990</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2024/01/Sale-Outlet-Velador-Milan-Derecho-Cic-1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>VELADOR CELTA VILLARREAL DERECHO</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>$29.990</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2023/08/SALE-OUTLET-VELADOR-CELTA-VILLARREAL-izquirdo.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>VELADOR DOLCE ROSEN</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>$69.990</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2024/01/Sale-Outlet-Velador-Rosen-Dolce-1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>RESPALDO CIC NEW TORINO CHOCOLATE KING</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>$69.990</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2024/01/Sale-Outlet-Respaldo-New-Torino-Cic-King-Chocolate-1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>RESPALDO VENETO ROSEN 2 PL</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>$69.990</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2024/01/Sale-Outlet-Respaldo-Veneto-Rosen-2-PL-1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Sabana American Familly Bicolor Purpura 2PL</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>$18.990</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2023/07/sale-outlet-sabana-american-familly-bicolor-purpura-15-plazas-1.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>PATAS DE CAMA KIT 4 UNIDADES</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>$15.000</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2023/11/Sale-Outlet-Patas-Para-Cama-1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>COLCHON CELTA ACTIVE BAMBOO 1 PL</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>$69.990</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2023/11/Sale-Outlet-Colchon-Celta-Active-Bamboo-1-Plaza-1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>VELADOR CELTA VILLARREAL IZQUIERDO</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>$29.990</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2023/08/SALE-OUTLET-VELADOR-CELTA-VILLARREAL-izquirdo.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>VELADOR ROSEN FERRARA</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>$39.990</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2023/08/SALE-OUTLET-VELADOR-ROSEN-FERRARA.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>VELADOR CIC DUBLIN CHOCOLATE</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>$27.990</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2023/08/SALE-OUTLET-Marca-velador.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>VELADOR CASTILLA CAFÉ</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>$14.990</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2023/08/SALE-OUTLET-CELTA-Velador-Celta-Castilla-Cafe.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>VELADOR ASTURIAS CHOCOLATE</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>$14.990</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2023/08/SALE-OUTLET-Velador-Celta-Asturias-Cafe.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>SET CIC 2 VELADOR + RESPALDO LEGNO 2 PLAZA</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>$69.990</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2023/08/SALE-OUTLET-SET-CIC-2-VELADOR-RESPALDO-LEGNO-2-PL.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>RESPALDO FLEX TOSCANA 2 PLAZA</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>$59.990</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2023/08/SALE-OUTLET-RESPALDO-FLEX-TOSCANA-2-PL.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>RESPALDO ROSEN VENETO KING REMATE</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>$49.990</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2023/08/SALE-OUTLET-RESPALDO-ROSEN-VENETO-KING.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>RESPALDO ROSEN ISSEY KING GRAFITO</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>$119.990</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2023/08/SALE-OUTLET-RESPALDO-ROSEN-ISSEY-KING-GRAFITO.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>RESPALDO ROSEN DOMENICO KING</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>$99.990</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2023/08/SALE-OUTLET-RESPALDO-ROSEN-DOMENICO-KING-.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>RESPALDO FLEX LORRAINE 2 PL</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>$59.990</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2023/08/SALE-OUTLET-35545774.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>RESPALDO ITALIA 2 PLAZA</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>$19.990</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2023/08/Captura-de-Pantalla-2023-08-29-a-las-12.56.03.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>RESPALDO ROSEN FERRARA 2 PLAZA</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>$59.990</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2023/08/SALE-OUTLET-RESPALDO-ROSEN-FERRARA-2-PL.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>RESPALDO ROSEN FERRARA 1.5 PLAZA</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>$49.990</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2023/08/SALE-OUTLET-RESPALDO-ROSEN-FERRARA-1.5-PL.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>RESPALDO CIC NEW DUBLIN CHOCOLATE 2 PL</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>$59.990</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2023/08/SALE-OUTLET-RESPALDO-CIC-NEW-DUBLIN-CHOCOLATE-2-PL.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>RESPALDO CIC TIGRIS 2 PLAZA BEIGE</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>$59.990</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2023/08/SALE-OUTLET-37721956.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>RESPALDO CIC NEW VILLARRICA 2 PLAZA</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>$29.990</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2023/08/SALE-OUTLET-RESPALDO-CIC-NEW-VILLARRICA-2-PL.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>RESPALDO CIC NEW TORINO CARAMEL KING</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>$69.990</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2023/08/SALE-OUTLET-RESPALDO-CIC-NEW-TORINO-CARAMEL-KING-.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>RESPALDO CELTA 1 PLAZA CASTILLA</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>$14.990</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2023/08/SALE-OUTLET-Respaldo-Celta-1-Plaza-Castilla.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>RESPALDO CELTA 2 PLAZAS CASTILLA CAFE</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>$14.990</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2023/08/SALE-OUTLET-Respaldo-Celta-2-Plazas-Castilla-Cafe.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>RESPALDO CASTILLA 1.5 PLAZA</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>$14.990</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2023/08/SALE-OUTLET-Respaldo-Celta-15-Plazas-Castilla-Cafe.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>RESPALDO CELTA KING CAPITONE CAFÉ</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>$79.990</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2023/08/SALE-OUTLET-RESPALDO-CELTA-KING-CAPITONE-CAFE.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>RESPALDO BILBAO 2 PLAZA</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>$69.990</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2023/08/SALE-OUTLET-RESPALDO-ROSEN-BILBAO-2-PL.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>RESPALDO ASTURIAS CHOCOLATE 2 PLAZA</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>$14.990</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2023/08/SALE-OUTLET-Respaldo-Celta-2-Plazas-Asturias.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>RESPALDO ASTURIAS CHOCOLATE 1.5 PLAZA</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>$14.990</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2023/08/Captura-de-Pantalla-2023-08-29-a-las-12.45.33.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>RESPALDO ASTURIAS CHOCOLATE 1 PLAZA</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>$14.990</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2023/08/Captura-de-Pantalla-2023-08-29-a-las-13.04.59.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>RESPALDO AERUS HONEY KING BEIGE</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>$89.990</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2023/08/Sale-Outlet-Aerus-Honey-King-Beige-1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>RESPALDO CIC EUFRATES KING GRIS</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>$69.990</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2023/08/SALE-OUTLET-RESPALDO-CIC-EUFRATES-KING.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Despacho El bosque, La florida, Padre hurtado, Peñaflor</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>$17.990</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2023/07/Sale-Outlet-Despacho-1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Despacho El monte, Melipilla, Paine, Talagante</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>$34.990</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2023/07/Sale-Outlet-Despacho-1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Despacho Cerrillos, La cisterna, La granja y La pintana</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>$15.990</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2023/07/Sale-Outlet-Despacho-1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Despacho Isla de maipo</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>$29.990</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>https://saleoutlet.cl/wp-content/uploads/2023/02/PR-0x0.jpg</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>https://saleoutlet.cl/wp-content/uploads/2023/02/PR-0x0.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>RESPALDO CIC NEW TORINO CHOCOLATE 2 PL</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>$59.990</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2021/08/2000377219454_2.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Sabana American Familly Bicolor Granito 1.5 Plazas</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>$15.990</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2023/07/sale-outlet-sabana-american-familly-bicolor-granito-1.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>RESPALDO  ROBERTA ALLEN-COCHRANE SUPERKING CRUDO</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>$299.990</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2023/06/SALE-OUTLET-R.ALLEN-RESPALDO-COCHRANE-SUPERKING-CRUDO-1.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>RESPALDO ROBERTA ALLEN- KING/S VALENTIN</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>$149.990</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2023/06/SALE-OUTLET-RESPALDO-ROBERTA-ALLEN-KINGS-VALENTIN-1.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>VELADOR MALLORCA</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>$39.990</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2023/02/Sale-Outlet-Velador-Mallorca-1.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>CAMA EUROPEA ROSEN NEW STYLE 6 1 PL</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>$229.990</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>https://www.saleoutlet.cl/wp-content/uploads/2022/12/Sale-Outlet-Cama-Europea-1-Plaza-New-Style-6-Rosen-1.jpg</t>
         </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>